--- a/OnBoard/output/trust/catch/Catch_Trust_30.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_30.xlsx
@@ -1884,7 +1884,7 @@
         <v>0.472</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I37">
         <v>6.546093749999999</v>
@@ -2007,7 +2007,7 @@
         <v>0.352</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I40">
         <v>6.546093749999999</v>
@@ -2499,7 +2499,7 @@
         <v>2.763</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I52">
         <v>6.546093749999999</v>
@@ -2581,7 +2581,7 @@
         <v>0.218</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I54">
         <v>6.546093749999999</v>
